--- a/templates/4b Lamp Penerimaan Prakualifikasi.xlsx
+++ b/templates/4b Lamp Penerimaan Prakualifikasi.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8505"/>
@@ -14,48 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="38">
   <si>
     <t>DAFTAR PEMASUKAN DOKUMEN PRAKUALIFIKASI</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">(Dokumen Prakualifikasi No </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>#nodokprakualifikasi#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> tanggal </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>#tgldokprakualifikasi#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
   </si>
   <si>
     <t>No.</t>
@@ -108,12 +69,75 @@
   <si>
     <t>No. HP</t>
   </si>
+  <si>
+    <t>(Dokumen Prakualifikasi No #nodokprakualifikasi# tanggal #tgldokprakualifikasi#)</t>
+  </si>
+  <si>
+    <t>#namaperusahaan1#</t>
+  </si>
+  <si>
+    <t>#alamatperusahaan1#</t>
+  </si>
+  <si>
+    <t>#namaperusahaan2#</t>
+  </si>
+  <si>
+    <t>#alamatperusahaan2#</t>
+  </si>
+  <si>
+    <t>#namaperusahaan3#</t>
+  </si>
+  <si>
+    <t>#alamatperusahaan3#</t>
+  </si>
+  <si>
+    <t>#namaperusahaan4#</t>
+  </si>
+  <si>
+    <t>#alamatperusahaan4#</t>
+  </si>
+  <si>
+    <t>#namaperusahaan5#</t>
+  </si>
+  <si>
+    <t>#alamatperusahaan5#</t>
+  </si>
+  <si>
+    <t>#namaperusahaan6#</t>
+  </si>
+  <si>
+    <t>#alamatperusahaan6#</t>
+  </si>
+  <si>
+    <t>#namaperusahaan7#</t>
+  </si>
+  <si>
+    <t>#alamatperusahaan7#</t>
+  </si>
+  <si>
+    <t>#namaperusahaan8#</t>
+  </si>
+  <si>
+    <t>#alamatperusahaan8#</t>
+  </si>
+  <si>
+    <t>#namaperusahaan9#</t>
+  </si>
+  <si>
+    <t>#alamatperusahaan9#</t>
+  </si>
+  <si>
+    <t>#namaperusahaan10#</t>
+  </si>
+  <si>
+    <t>#alamatperusahaan10#</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,49 +146,57 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <name val="Arial"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Arial"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color indexed="12"/>
-      <name val="Arial"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -356,235 +388,209 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12049,7 +12055,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -12084,7 +12089,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -12260,2328 +12264,2417 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K165"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:E30"/>
+      <selection activeCell="G148" sqref="G148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="4" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="1.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="1" max="1" width="4" style="87" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="12.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:11" ht="18">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="95"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
+    <row r="2" spans="1:11" ht="18">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+    <row r="3" spans="1:11" ht="18">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
+    <row r="4" spans="1:11" ht="15" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1">
+      <c r="A6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
+      <c r="B6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="14"/>
+      <c r="K6" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
+    <row r="7" spans="1:11" ht="22.5">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="24"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="25">
+        <v>1</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="35"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="25"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="35"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="25"/>
+      <c r="B10" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="45"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="35"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="25"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="35"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="25"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="35"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="25"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="35"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="25"/>
+      <c r="B14" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="35"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="25"/>
+      <c r="B15" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="35"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="25"/>
+      <c r="B16" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="52"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="35"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="25"/>
+      <c r="B17" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="50"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="35"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="25"/>
+      <c r="B18" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="35"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="25"/>
+      <c r="B19" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="59"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="35"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="61"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="67"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="68">
         <v>2</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B21" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="29"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="60"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="25"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="35"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="25"/>
+      <c r="B23" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="45"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="35"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="25"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="35"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="25"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="35"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="25"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="35"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="25"/>
+      <c r="B27" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="50"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="35"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="25"/>
+      <c r="B28" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="50"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="35"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="25"/>
+      <c r="B29" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="52"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="35"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="25"/>
+      <c r="B30" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="50"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="35"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="25"/>
+      <c r="B31" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="55"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="35"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="25"/>
+      <c r="B32" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="59"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="35"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="61"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="67"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="73" t="s">
+      <c r="G36" s="12"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="74"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="65" t="s">
+      <c r="J36" s="14"/>
+      <c r="K36" s="15"/>
+    </row>
+    <row r="37" spans="1:11" ht="22.5">
+      <c r="A37" s="16"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="76"/>
-      <c r="K6" s="77"/>
+      <c r="G37" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="16"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A7" s="66"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="37" t="s">
+    <row r="38" spans="1:11" ht="15" customHeight="1">
+      <c r="A38" s="68">
+        <v>3</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="29"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="60"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="25"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="35"/>
+    </row>
+    <row r="40" spans="1:11" ht="15" customHeight="1">
+      <c r="A40" s="25"/>
+      <c r="B40" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="45"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="35"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="25"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="35"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="25"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="35"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="25"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="35"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="25"/>
+      <c r="B44" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="75"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="35"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="25"/>
+      <c r="B45" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="75"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="35"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="25"/>
+      <c r="B46" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="77"/>
+      <c r="E46" s="78"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="35"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="25"/>
+      <c r="B47" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="75"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="35"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="25"/>
+      <c r="B48" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="79"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="35"/>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="25"/>
+      <c r="B49" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="81"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="35"/>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="61"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="64"/>
+      <c r="I50" s="65"/>
+      <c r="J50" s="66"/>
+      <c r="K50" s="67"/>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="68">
+        <v>4</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" s="29"/>
+      <c r="F51" s="83"/>
+      <c r="G51" s="70"/>
+      <c r="H51" s="71"/>
+      <c r="I51" s="72"/>
+      <c r="J51" s="59"/>
+      <c r="K51" s="60"/>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="25"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="84"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="73"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="35"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="25"/>
+      <c r="B53" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="45"/>
+      <c r="F53" s="84"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="35"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="25"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="84"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="35"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="25"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="84"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="35"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="25"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="84"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="35"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="25"/>
+      <c r="B57" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="75"/>
+      <c r="E57" s="76"/>
+      <c r="F57" s="84"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="34"/>
+      <c r="K57" s="35"/>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="25"/>
+      <c r="B58" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="75"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="84"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="35"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="25"/>
+      <c r="B59" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="77"/>
+      <c r="E59" s="78"/>
+      <c r="F59" s="84"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="34"/>
+      <c r="K59" s="35"/>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="25"/>
+      <c r="B60" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="75"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="84"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="34"/>
+      <c r="K60" s="35"/>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="25"/>
+      <c r="B61" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="79"/>
+      <c r="E61" s="80"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="34"/>
+      <c r="K61" s="35"/>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="25"/>
+      <c r="B62" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="81"/>
+      <c r="E62" s="82"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="33"/>
+      <c r="J62" s="34"/>
+      <c r="K62" s="35"/>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="61"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="64"/>
+      <c r="F63" s="63"/>
+      <c r="G63" s="63"/>
+      <c r="H63" s="64"/>
+      <c r="I63" s="65"/>
+      <c r="J63" s="66"/>
+      <c r="K63" s="67"/>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G70" s="12"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J70" s="14"/>
+      <c r="K70" s="15"/>
+    </row>
+    <row r="71" spans="1:11" ht="22.5">
+      <c r="A71" s="16"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G71" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="H71" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="39" t="s">
+      <c r="I71" s="16"/>
+      <c r="J71" s="23"/>
+      <c r="K71" s="24"/>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="68">
+        <v>5</v>
+      </c>
+      <c r="B72" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="66"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="79"/>
+      <c r="C72" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E72" s="29"/>
+      <c r="F72" s="83"/>
+      <c r="G72" s="70"/>
+      <c r="H72" s="71"/>
+      <c r="I72" s="72"/>
+      <c r="J72" s="59"/>
+      <c r="K72" s="60"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+    <row r="73" spans="1:11">
+      <c r="A73" s="25"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="38"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="84"/>
+      <c r="G73" s="40"/>
+      <c r="H73" s="73"/>
+      <c r="I73" s="33"/>
+      <c r="J73" s="34"/>
+      <c r="K73" s="35"/>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="25"/>
+      <c r="B74" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="E74" s="45"/>
+      <c r="F74" s="84"/>
+      <c r="G74" s="40"/>
+      <c r="H74" s="46"/>
+      <c r="I74" s="33"/>
+      <c r="J74" s="34"/>
+      <c r="K74" s="35"/>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="25"/>
+      <c r="B75" s="42"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="84"/>
+      <c r="G75" s="40"/>
+      <c r="H75" s="46"/>
+      <c r="I75" s="33"/>
+      <c r="J75" s="34"/>
+      <c r="K75" s="35"/>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="25"/>
+      <c r="B76" s="42"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="47"/>
+      <c r="E76" s="45"/>
+      <c r="F76" s="84"/>
+      <c r="G76" s="40"/>
+      <c r="H76" s="46"/>
+      <c r="I76" s="33"/>
+      <c r="J76" s="34"/>
+      <c r="K76" s="35"/>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="25"/>
+      <c r="B77" s="42"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="47"/>
+      <c r="E77" s="45"/>
+      <c r="F77" s="84"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="46"/>
+      <c r="I77" s="33"/>
+      <c r="J77" s="34"/>
+      <c r="K77" s="35"/>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="25"/>
+      <c r="B78" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="50"/>
+      <c r="E78" s="51"/>
+      <c r="F78" s="84"/>
+      <c r="G78" s="40"/>
+      <c r="H78" s="46"/>
+      <c r="I78" s="33"/>
+      <c r="J78" s="34"/>
+      <c r="K78" s="35"/>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="25"/>
+      <c r="B79" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="50"/>
+      <c r="E79" s="51"/>
+      <c r="F79" s="84"/>
+      <c r="G79" s="40"/>
+      <c r="H79" s="46"/>
+      <c r="I79" s="33"/>
+      <c r="J79" s="34"/>
+      <c r="K79" s="35"/>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="25"/>
+      <c r="B80" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="52"/>
+      <c r="E80" s="53"/>
+      <c r="F80" s="84"/>
+      <c r="G80" s="40"/>
+      <c r="H80" s="46"/>
+      <c r="I80" s="33"/>
+      <c r="J80" s="34"/>
+      <c r="K80" s="35"/>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="25"/>
+      <c r="B81" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="50"/>
+      <c r="E81" s="51"/>
+      <c r="F81" s="84"/>
+      <c r="G81" s="40"/>
+      <c r="H81" s="46"/>
+      <c r="I81" s="33"/>
+      <c r="J81" s="34"/>
+      <c r="K81" s="35"/>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="25"/>
+      <c r="B82" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="55"/>
+      <c r="E82" s="56"/>
+      <c r="F82" s="40"/>
+      <c r="G82" s="40"/>
+      <c r="H82" s="46"/>
+      <c r="I82" s="33"/>
+      <c r="J82" s="34"/>
+      <c r="K82" s="35"/>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="25"/>
+      <c r="B83" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" s="86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="59"/>
+      <c r="E83" s="60"/>
+      <c r="F83" s="40"/>
+      <c r="G83" s="40"/>
+      <c r="H83" s="46"/>
+      <c r="I83" s="33"/>
+      <c r="J83" s="34"/>
+      <c r="K83" s="35"/>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="61"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="64"/>
+      <c r="F84" s="63"/>
+      <c r="G84" s="63"/>
+      <c r="H84" s="64"/>
+      <c r="I84" s="65"/>
+      <c r="J84" s="66"/>
+      <c r="K84" s="67"/>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="68">
+        <v>6</v>
+      </c>
+      <c r="B85" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E85" s="29"/>
+      <c r="F85" s="83"/>
+      <c r="G85" s="70"/>
+      <c r="H85" s="71"/>
+      <c r="I85" s="72"/>
+      <c r="J85" s="59"/>
+      <c r="K85" s="60"/>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="25"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="39"/>
+      <c r="F86" s="84"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="73"/>
+      <c r="I86" s="33"/>
+      <c r="J86" s="34"/>
+      <c r="K86" s="35"/>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="25"/>
+      <c r="B87" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="E87" s="45"/>
+      <c r="F87" s="84"/>
+      <c r="G87" s="40"/>
+      <c r="H87" s="46"/>
+      <c r="I87" s="33"/>
+      <c r="J87" s="34"/>
+      <c r="K87" s="35"/>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="25"/>
+      <c r="B88" s="42"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="47"/>
+      <c r="E88" s="45"/>
+      <c r="F88" s="84"/>
+      <c r="G88" s="40"/>
+      <c r="H88" s="46"/>
+      <c r="I88" s="33"/>
+      <c r="J88" s="34"/>
+      <c r="K88" s="35"/>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="25"/>
+      <c r="B89" s="42"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="47"/>
+      <c r="E89" s="45"/>
+      <c r="F89" s="84"/>
+      <c r="G89" s="40"/>
+      <c r="H89" s="46"/>
+      <c r="I89" s="33"/>
+      <c r="J89" s="34"/>
+      <c r="K89" s="35"/>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="25"/>
+      <c r="B90" s="42"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="47"/>
+      <c r="E90" s="45"/>
+      <c r="F90" s="84"/>
+      <c r="G90" s="40"/>
+      <c r="H90" s="46"/>
+      <c r="I90" s="33"/>
+      <c r="J90" s="34"/>
+      <c r="K90" s="35"/>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="25"/>
+      <c r="B91" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="50"/>
+      <c r="E91" s="51"/>
+      <c r="F91" s="84"/>
+      <c r="G91" s="40"/>
+      <c r="H91" s="46"/>
+      <c r="I91" s="33"/>
+      <c r="J91" s="34"/>
+      <c r="K91" s="35"/>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="25"/>
+      <c r="B92" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="50"/>
+      <c r="E92" s="51"/>
+      <c r="F92" s="84"/>
+      <c r="G92" s="40"/>
+      <c r="H92" s="46"/>
+      <c r="I92" s="33"/>
+      <c r="J92" s="34"/>
+      <c r="K92" s="35"/>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="25"/>
+      <c r="B93" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="52"/>
+      <c r="E93" s="53"/>
+      <c r="F93" s="84"/>
+      <c r="G93" s="40"/>
+      <c r="H93" s="46"/>
+      <c r="I93" s="33"/>
+      <c r="J93" s="34"/>
+      <c r="K93" s="35"/>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="25"/>
+      <c r="B94" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="50"/>
+      <c r="E94" s="51"/>
+      <c r="F94" s="84"/>
+      <c r="G94" s="40"/>
+      <c r="H94" s="46"/>
+      <c r="I94" s="33"/>
+      <c r="J94" s="34"/>
+      <c r="K94" s="35"/>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="25"/>
+      <c r="B95" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="55"/>
+      <c r="E95" s="56"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="46"/>
+      <c r="I95" s="33"/>
+      <c r="J95" s="34"/>
+      <c r="K95" s="35"/>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="25"/>
+      <c r="B96" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96" s="86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="59"/>
+      <c r="E96" s="60"/>
+      <c r="F96" s="40"/>
+      <c r="G96" s="40"/>
+      <c r="H96" s="46"/>
+      <c r="I96" s="33"/>
+      <c r="J96" s="34"/>
+      <c r="K96" s="35"/>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="61"/>
+      <c r="B97" s="36"/>
+      <c r="C97" s="37"/>
+      <c r="D97" s="37"/>
+      <c r="E97" s="64"/>
+      <c r="F97" s="63"/>
+      <c r="G97" s="63"/>
+      <c r="H97" s="64"/>
+      <c r="I97" s="65"/>
+      <c r="J97" s="66"/>
+      <c r="K97" s="67"/>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B104" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G104" s="12"/>
+      <c r="H104" s="13"/>
+      <c r="I104" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J104" s="14"/>
+      <c r="K104" s="15"/>
+    </row>
+    <row r="105" spans="1:11" ht="22.5">
+      <c r="A105" s="16"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G105" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H105" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I105" s="16"/>
+      <c r="J105" s="23"/>
+      <c r="K105" s="24"/>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="68">
+        <v>7</v>
+      </c>
+      <c r="B106" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="D106" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E106" s="29"/>
+      <c r="F106" s="83"/>
+      <c r="G106" s="70"/>
+      <c r="H106" s="71"/>
+      <c r="I106" s="72"/>
+      <c r="J106" s="59"/>
+      <c r="K106" s="60"/>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="25"/>
+      <c r="B107" s="36"/>
+      <c r="C107" s="37"/>
+      <c r="D107" s="38"/>
+      <c r="E107" s="39"/>
+      <c r="F107" s="84"/>
+      <c r="G107" s="40"/>
+      <c r="H107" s="73"/>
+      <c r="I107" s="33"/>
+      <c r="J107" s="34"/>
+      <c r="K107" s="35"/>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="25"/>
+      <c r="B108" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="89"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="83"/>
+      <c r="C108" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="E108" s="45"/>
+      <c r="F108" s="84"/>
+      <c r="G108" s="40"/>
+      <c r="H108" s="46"/>
+      <c r="I108" s="33"/>
+      <c r="J108" s="34"/>
+      <c r="K108" s="35"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="83"/>
+    <row r="109" spans="1:11">
+      <c r="A109" s="25"/>
+      <c r="B109" s="42"/>
+      <c r="C109" s="43"/>
+      <c r="D109" s="47"/>
+      <c r="E109" s="45"/>
+      <c r="F109" s="84"/>
+      <c r="G109" s="40"/>
+      <c r="H109" s="46"/>
+      <c r="I109" s="33"/>
+      <c r="J109" s="34"/>
+      <c r="K109" s="35"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="1" t="s">
+    <row r="110" spans="1:11">
+      <c r="A110" s="25"/>
+      <c r="B110" s="42"/>
+      <c r="C110" s="43"/>
+      <c r="D110" s="47"/>
+      <c r="E110" s="45"/>
+      <c r="F110" s="84"/>
+      <c r="G110" s="40"/>
+      <c r="H110" s="46"/>
+      <c r="I110" s="33"/>
+      <c r="J110" s="34"/>
+      <c r="K110" s="35"/>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" s="25"/>
+      <c r="B111" s="42"/>
+      <c r="C111" s="43"/>
+      <c r="D111" s="47"/>
+      <c r="E111" s="45"/>
+      <c r="F111" s="84"/>
+      <c r="G111" s="40"/>
+      <c r="H111" s="46"/>
+      <c r="I111" s="33"/>
+      <c r="J111" s="34"/>
+      <c r="K111" s="35"/>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" s="25"/>
+      <c r="B112" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C112" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="50"/>
+      <c r="E112" s="51"/>
+      <c r="F112" s="84"/>
+      <c r="G112" s="40"/>
+      <c r="H112" s="46"/>
+      <c r="I112" s="33"/>
+      <c r="J112" s="34"/>
+      <c r="K112" s="35"/>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" s="25"/>
+      <c r="B113" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="50"/>
+      <c r="E113" s="51"/>
+      <c r="F113" s="84"/>
+      <c r="G113" s="40"/>
+      <c r="H113" s="46"/>
+      <c r="I113" s="33"/>
+      <c r="J113" s="34"/>
+      <c r="K113" s="35"/>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" s="25"/>
+      <c r="B114" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="52"/>
+      <c r="E114" s="53"/>
+      <c r="F114" s="84"/>
+      <c r="G114" s="40"/>
+      <c r="H114" s="46"/>
+      <c r="I114" s="33"/>
+      <c r="J114" s="34"/>
+      <c r="K114" s="35"/>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="25"/>
+      <c r="B115" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="50"/>
+      <c r="E115" s="51"/>
+      <c r="F115" s="84"/>
+      <c r="G115" s="40"/>
+      <c r="H115" s="46"/>
+      <c r="I115" s="33"/>
+      <c r="J115" s="34"/>
+      <c r="K115" s="35"/>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" s="25"/>
+      <c r="B116" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C116" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="55"/>
+      <c r="E116" s="56"/>
+      <c r="F116" s="40"/>
+      <c r="G116" s="40"/>
+      <c r="H116" s="46"/>
+      <c r="I116" s="33"/>
+      <c r="J116" s="34"/>
+      <c r="K116" s="35"/>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" s="25"/>
+      <c r="B117" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C117" s="86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="59"/>
+      <c r="E117" s="60"/>
+      <c r="F117" s="40"/>
+      <c r="G117" s="40"/>
+      <c r="H117" s="46"/>
+      <c r="I117" s="33"/>
+      <c r="J117" s="34"/>
+      <c r="K117" s="35"/>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" s="61"/>
+      <c r="B118" s="36"/>
+      <c r="C118" s="37"/>
+      <c r="D118" s="37"/>
+      <c r="E118" s="64"/>
+      <c r="F118" s="63"/>
+      <c r="G118" s="63"/>
+      <c r="H118" s="64"/>
+      <c r="I118" s="65"/>
+      <c r="J118" s="66"/>
+      <c r="K118" s="67"/>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" s="68">
+        <v>8</v>
+      </c>
+      <c r="B119" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E119" s="29"/>
+      <c r="F119" s="83"/>
+      <c r="G119" s="70"/>
+      <c r="H119" s="71"/>
+      <c r="I119" s="72"/>
+      <c r="J119" s="59"/>
+      <c r="K119" s="60"/>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" s="25"/>
+      <c r="B120" s="36"/>
+      <c r="C120" s="37"/>
+      <c r="D120" s="38"/>
+      <c r="E120" s="39"/>
+      <c r="F120" s="84"/>
+      <c r="G120" s="40"/>
+      <c r="H120" s="73"/>
+      <c r="I120" s="33"/>
+      <c r="J120" s="34"/>
+      <c r="K120" s="35"/>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" s="25"/>
+      <c r="B121" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="87"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="83"/>
+      <c r="C121" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="E121" s="45"/>
+      <c r="F121" s="84"/>
+      <c r="G121" s="40"/>
+      <c r="H121" s="46"/>
+      <c r="I121" s="33"/>
+      <c r="J121" s="34"/>
+      <c r="K121" s="35"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="83"/>
+    <row r="122" spans="1:11">
+      <c r="A122" s="25"/>
+      <c r="B122" s="42"/>
+      <c r="C122" s="43"/>
+      <c r="D122" s="47"/>
+      <c r="E122" s="45"/>
+      <c r="F122" s="84"/>
+      <c r="G122" s="40"/>
+      <c r="H122" s="46"/>
+      <c r="I122" s="33"/>
+      <c r="J122" s="34"/>
+      <c r="K122" s="35"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="83"/>
+    <row r="123" spans="1:11">
+      <c r="A123" s="25"/>
+      <c r="B123" s="42"/>
+      <c r="C123" s="43"/>
+      <c r="D123" s="47"/>
+      <c r="E123" s="45"/>
+      <c r="F123" s="84"/>
+      <c r="G123" s="40"/>
+      <c r="H123" s="46"/>
+      <c r="I123" s="33"/>
+      <c r="J123" s="34"/>
+      <c r="K123" s="35"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="83"/>
+    <row r="124" spans="1:11">
+      <c r="A124" s="25"/>
+      <c r="B124" s="42"/>
+      <c r="C124" s="43"/>
+      <c r="D124" s="47"/>
+      <c r="E124" s="45"/>
+      <c r="F124" s="84"/>
+      <c r="G124" s="40"/>
+      <c r="H124" s="46"/>
+      <c r="I124" s="33"/>
+      <c r="J124" s="34"/>
+      <c r="K124" s="35"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="40" t="s">
+    <row r="125" spans="1:11">
+      <c r="A125" s="25"/>
+      <c r="B125" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="50"/>
+      <c r="E125" s="51"/>
+      <c r="F125" s="84"/>
+      <c r="G125" s="40"/>
+      <c r="H125" s="46"/>
+      <c r="I125" s="33"/>
+      <c r="J125" s="34"/>
+      <c r="K125" s="35"/>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="25"/>
+      <c r="B126" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C126" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="50"/>
+      <c r="E126" s="51"/>
+      <c r="F126" s="84"/>
+      <c r="G126" s="40"/>
+      <c r="H126" s="46"/>
+      <c r="I126" s="33"/>
+      <c r="J126" s="34"/>
+      <c r="K126" s="35"/>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" s="25"/>
+      <c r="B127" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="52"/>
+      <c r="E127" s="53"/>
+      <c r="F127" s="84"/>
+      <c r="G127" s="40"/>
+      <c r="H127" s="46"/>
+      <c r="I127" s="33"/>
+      <c r="J127" s="34"/>
+      <c r="K127" s="35"/>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" s="25"/>
+      <c r="B128" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="50"/>
+      <c r="E128" s="51"/>
+      <c r="F128" s="84"/>
+      <c r="G128" s="40"/>
+      <c r="H128" s="46"/>
+      <c r="I128" s="33"/>
+      <c r="J128" s="34"/>
+      <c r="K128" s="35"/>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" s="25"/>
+      <c r="B129" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="55"/>
+      <c r="E129" s="56"/>
+      <c r="F129" s="40"/>
+      <c r="G129" s="40"/>
+      <c r="H129" s="46"/>
+      <c r="I129" s="33"/>
+      <c r="J129" s="34"/>
+      <c r="K129" s="35"/>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="25"/>
+      <c r="B130" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C130" s="86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="59"/>
+      <c r="E130" s="60"/>
+      <c r="F130" s="40"/>
+      <c r="G130" s="40"/>
+      <c r="H130" s="46"/>
+      <c r="I130" s="33"/>
+      <c r="J130" s="34"/>
+      <c r="K130" s="35"/>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="61"/>
+      <c r="B131" s="36"/>
+      <c r="C131" s="37"/>
+      <c r="D131" s="37"/>
+      <c r="E131" s="64"/>
+      <c r="F131" s="63"/>
+      <c r="G131" s="63"/>
+      <c r="H131" s="64"/>
+      <c r="I131" s="65"/>
+      <c r="J131" s="66"/>
+      <c r="K131" s="67"/>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="10"/>
+      <c r="F138" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G138" s="12"/>
+      <c r="H138" s="13"/>
+      <c r="I138" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J138" s="14"/>
+      <c r="K138" s="15"/>
+    </row>
+    <row r="139" spans="1:11" ht="22.5">
+      <c r="A139" s="16"/>
+      <c r="B139" s="17"/>
+      <c r="C139" s="18"/>
+      <c r="D139" s="18"/>
+      <c r="E139" s="19"/>
+      <c r="F139" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G139" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H139" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I139" s="16"/>
+      <c r="J139" s="23"/>
+      <c r="K139" s="24"/>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140" s="68">
+        <v>9</v>
+      </c>
+      <c r="B140" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E140" s="29"/>
+      <c r="F140" s="83"/>
+      <c r="G140" s="70"/>
+      <c r="H140" s="71"/>
+      <c r="I140" s="72"/>
+      <c r="J140" s="59"/>
+      <c r="K140" s="60"/>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141" s="25"/>
+      <c r="B141" s="36"/>
+      <c r="C141" s="37"/>
+      <c r="D141" s="38"/>
+      <c r="E141" s="39"/>
+      <c r="F141" s="84"/>
+      <c r="G141" s="40"/>
+      <c r="H141" s="73"/>
+      <c r="I141" s="33"/>
+      <c r="J141" s="34"/>
+      <c r="K141" s="35"/>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142" s="25"/>
+      <c r="B142" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="83"/>
+      <c r="C142" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E142" s="45"/>
+      <c r="F142" s="84"/>
+      <c r="G142" s="40"/>
+      <c r="H142" s="46"/>
+      <c r="I142" s="33"/>
+      <c r="J142" s="34"/>
+      <c r="K142" s="35"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="1" t="s">
+    <row r="143" spans="1:11">
+      <c r="A143" s="25"/>
+      <c r="B143" s="42"/>
+      <c r="C143" s="43"/>
+      <c r="D143" s="47"/>
+      <c r="E143" s="45"/>
+      <c r="F143" s="84"/>
+      <c r="G143" s="40"/>
+      <c r="H143" s="46"/>
+      <c r="I143" s="33"/>
+      <c r="J143" s="34"/>
+      <c r="K143" s="35"/>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144" s="25"/>
+      <c r="B144" s="42"/>
+      <c r="C144" s="43"/>
+      <c r="D144" s="47"/>
+      <c r="E144" s="45"/>
+      <c r="F144" s="84"/>
+      <c r="G144" s="40"/>
+      <c r="H144" s="46"/>
+      <c r="I144" s="33"/>
+      <c r="J144" s="34"/>
+      <c r="K144" s="35"/>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145" s="25"/>
+      <c r="B145" s="42"/>
+      <c r="C145" s="43"/>
+      <c r="D145" s="47"/>
+      <c r="E145" s="45"/>
+      <c r="F145" s="84"/>
+      <c r="G145" s="40"/>
+      <c r="H145" s="46"/>
+      <c r="I145" s="33"/>
+      <c r="J145" s="34"/>
+      <c r="K145" s="35"/>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146" s="25"/>
+      <c r="B146" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="50"/>
+      <c r="E146" s="51"/>
+      <c r="F146" s="84"/>
+      <c r="G146" s="40"/>
+      <c r="H146" s="46"/>
+      <c r="I146" s="33"/>
+      <c r="J146" s="34"/>
+      <c r="K146" s="35"/>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147" s="25"/>
+      <c r="B147" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C147" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="50"/>
+      <c r="E147" s="51"/>
+      <c r="F147" s="84"/>
+      <c r="G147" s="40"/>
+      <c r="H147" s="46"/>
+      <c r="I147" s="33"/>
+      <c r="J147" s="34"/>
+      <c r="K147" s="35"/>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148" s="25"/>
+      <c r="B148" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C148" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="52"/>
+      <c r="E148" s="53"/>
+      <c r="F148" s="84"/>
+      <c r="G148" s="40"/>
+      <c r="H148" s="46"/>
+      <c r="I148" s="33"/>
+      <c r="J148" s="34"/>
+      <c r="K148" s="35"/>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149" s="25"/>
+      <c r="B149" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C149" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="50"/>
+      <c r="E149" s="51"/>
+      <c r="F149" s="84"/>
+      <c r="G149" s="40"/>
+      <c r="H149" s="46"/>
+      <c r="I149" s="33"/>
+      <c r="J149" s="34"/>
+      <c r="K149" s="35"/>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150" s="25"/>
+      <c r="B150" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C150" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="55"/>
+      <c r="E150" s="56"/>
+      <c r="F150" s="40"/>
+      <c r="G150" s="40"/>
+      <c r="H150" s="46"/>
+      <c r="I150" s="33"/>
+      <c r="J150" s="34"/>
+      <c r="K150" s="35"/>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151" s="25"/>
+      <c r="B151" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C151" s="86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="59"/>
+      <c r="E151" s="60"/>
+      <c r="F151" s="40"/>
+      <c r="G151" s="40"/>
+      <c r="H151" s="46"/>
+      <c r="I151" s="33"/>
+      <c r="J151" s="34"/>
+      <c r="K151" s="35"/>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152" s="61"/>
+      <c r="B152" s="36"/>
+      <c r="C152" s="37"/>
+      <c r="D152" s="37"/>
+      <c r="E152" s="64"/>
+      <c r="F152" s="63"/>
+      <c r="G152" s="63"/>
+      <c r="H152" s="64"/>
+      <c r="I152" s="65"/>
+      <c r="J152" s="66"/>
+      <c r="K152" s="67"/>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153" s="68">
         <v>10</v>
       </c>
-      <c r="D15" s="59"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="83"/>
+      <c r="B153" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E153" s="29"/>
+      <c r="F153" s="83"/>
+      <c r="G153" s="70"/>
+      <c r="H153" s="71"/>
+      <c r="I153" s="72"/>
+      <c r="J153" s="59"/>
+      <c r="K153" s="60"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="40" t="s">
+    <row r="154" spans="1:11">
+      <c r="A154" s="25"/>
+      <c r="B154" s="36"/>
+      <c r="C154" s="37"/>
+      <c r="D154" s="38"/>
+      <c r="E154" s="39"/>
+      <c r="F154" s="84"/>
+      <c r="G154" s="40"/>
+      <c r="H154" s="73"/>
+      <c r="I154" s="33"/>
+      <c r="J154" s="34"/>
+      <c r="K154" s="35"/>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155" s="25"/>
+      <c r="B155" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C155" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="E155" s="45"/>
+      <c r="F155" s="84"/>
+      <c r="G155" s="40"/>
+      <c r="H155" s="46"/>
+      <c r="I155" s="33"/>
+      <c r="J155" s="34"/>
+      <c r="K155" s="35"/>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156" s="25"/>
+      <c r="B156" s="42"/>
+      <c r="C156" s="43"/>
+      <c r="D156" s="47"/>
+      <c r="E156" s="45"/>
+      <c r="F156" s="84"/>
+      <c r="G156" s="40"/>
+      <c r="H156" s="46"/>
+      <c r="I156" s="33"/>
+      <c r="J156" s="34"/>
+      <c r="K156" s="35"/>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157" s="25"/>
+      <c r="B157" s="42"/>
+      <c r="C157" s="43"/>
+      <c r="D157" s="47"/>
+      <c r="E157" s="45"/>
+      <c r="F157" s="84"/>
+      <c r="G157" s="40"/>
+      <c r="H157" s="46"/>
+      <c r="I157" s="33"/>
+      <c r="J157" s="34"/>
+      <c r="K157" s="35"/>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158" s="25"/>
+      <c r="B158" s="42"/>
+      <c r="C158" s="43"/>
+      <c r="D158" s="47"/>
+      <c r="E158" s="45"/>
+      <c r="F158" s="84"/>
+      <c r="G158" s="40"/>
+      <c r="H158" s="46"/>
+      <c r="I158" s="33"/>
+      <c r="J158" s="34"/>
+      <c r="K158" s="35"/>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159" s="25"/>
+      <c r="B159" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="50"/>
+      <c r="E159" s="51"/>
+      <c r="F159" s="84"/>
+      <c r="G159" s="40"/>
+      <c r="H159" s="46"/>
+      <c r="I159" s="33"/>
+      <c r="J159" s="34"/>
+      <c r="K159" s="35"/>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160" s="25"/>
+      <c r="B160" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C160" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="50"/>
+      <c r="E160" s="51"/>
+      <c r="F160" s="84"/>
+      <c r="G160" s="40"/>
+      <c r="H160" s="46"/>
+      <c r="I160" s="33"/>
+      <c r="J160" s="34"/>
+      <c r="K160" s="35"/>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161" s="25"/>
+      <c r="B161" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C161" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="52"/>
+      <c r="E161" s="53"/>
+      <c r="F161" s="84"/>
+      <c r="G161" s="40"/>
+      <c r="H161" s="46"/>
+      <c r="I161" s="33"/>
+      <c r="J161" s="34"/>
+      <c r="K161" s="35"/>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162" s="25"/>
+      <c r="B162" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="83"/>
+      <c r="C162" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="50"/>
+      <c r="E162" s="51"/>
+      <c r="F162" s="84"/>
+      <c r="G162" s="40"/>
+      <c r="H162" s="46"/>
+      <c r="I162" s="33"/>
+      <c r="J162" s="34"/>
+      <c r="K162" s="35"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="27" t="s">
+    <row r="163" spans="1:11">
+      <c r="A163" s="25"/>
+      <c r="B163" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="59"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="83"/>
+      <c r="C163" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="55"/>
+      <c r="E163" s="56"/>
+      <c r="F163" s="40"/>
+      <c r="G163" s="40"/>
+      <c r="H163" s="46"/>
+      <c r="I163" s="33"/>
+      <c r="J163" s="34"/>
+      <c r="K163" s="35"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="40" t="s">
+    <row r="164" spans="1:11">
+      <c r="A164" s="25"/>
+      <c r="B164" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="83"/>
+      <c r="C164" s="86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="59"/>
+      <c r="E164" s="60"/>
+      <c r="F164" s="40"/>
+      <c r="G164" s="40"/>
+      <c r="H164" s="46"/>
+      <c r="I164" s="33"/>
+      <c r="J164" s="34"/>
+      <c r="K164" s="35"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="83"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="86"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
-        <v>2</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="89"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="64"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="83"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="87"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="83"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="83"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="83"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="83"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="59"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="83"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="59"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="83"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="57"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="83"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="59"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="81"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="83"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
-      <c r="B31" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="61"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="81"/>
-      <c r="J31" s="82"/>
-      <c r="K31" s="83"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
-      <c r="B32" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="63"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="81"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="83"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="85"/>
-      <c r="K33" s="86"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="65" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="73" t="s">
-        <v>4</v>
-      </c>
-      <c r="G36" s="74"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="J36" s="76"/>
-      <c r="K36" s="77"/>
-    </row>
-    <row r="37" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A37" s="66"/>
-      <c r="B37" s="70"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="G37" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="H37" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="I37" s="66"/>
-      <c r="J37" s="78"/>
-      <c r="K37" s="79"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="36">
-        <v>3</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="43"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="80"/>
-      <c r="J38" s="63"/>
-      <c r="K38" s="64"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="34"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="81"/>
-      <c r="J39" s="82"/>
-      <c r="K39" s="83"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="34"/>
-      <c r="B40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="43"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="81"/>
-      <c r="J40" s="82"/>
-      <c r="K40" s="83"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="34"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="81"/>
-      <c r="J41" s="82"/>
-      <c r="K41" s="83"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="34"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="81"/>
-      <c r="J42" s="82"/>
-      <c r="K42" s="83"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="34"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="81"/>
-      <c r="J43" s="82"/>
-      <c r="K43" s="83"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="34"/>
-      <c r="B44" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="51"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="81"/>
-      <c r="J44" s="82"/>
-      <c r="K44" s="83"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="34"/>
-      <c r="B45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="51"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="81"/>
-      <c r="J45" s="82"/>
-      <c r="K45" s="83"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="34"/>
-      <c r="B46" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="53"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="81"/>
-      <c r="J46" s="82"/>
-      <c r="K46" s="83"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="34"/>
-      <c r="B47" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" s="51"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="81"/>
-      <c r="J47" s="82"/>
-      <c r="K47" s="83"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="34"/>
-      <c r="B48" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="55"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="81"/>
-      <c r="J48" s="82"/>
-      <c r="K48" s="83"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="34"/>
-      <c r="B49" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="45"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="81"/>
-      <c r="J49" s="82"/>
-      <c r="K49" s="83"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="35"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="84"/>
-      <c r="J50" s="85"/>
-      <c r="K50" s="86"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="36">
-        <v>4</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" s="43"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="80"/>
-      <c r="J51" s="63"/>
-      <c r="K51" s="64"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="34"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="81"/>
-      <c r="J52" s="82"/>
-      <c r="K52" s="83"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="34"/>
-      <c r="B53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" s="43"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="81"/>
-      <c r="J53" s="82"/>
-      <c r="K53" s="83"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="34"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="81"/>
-      <c r="J54" s="82"/>
-      <c r="K54" s="83"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="34"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="50"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="81"/>
-      <c r="J55" s="82"/>
-      <c r="K55" s="83"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="34"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="48"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="81"/>
-      <c r="J56" s="82"/>
-      <c r="K56" s="83"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="34"/>
-      <c r="B57" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57" s="51"/>
-      <c r="E57" s="52"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="81"/>
-      <c r="J57" s="82"/>
-      <c r="K57" s="83"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="34"/>
-      <c r="B58" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58" s="51"/>
-      <c r="E58" s="52"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="81"/>
-      <c r="J58" s="82"/>
-      <c r="K58" s="83"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="34"/>
-      <c r="B59" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C59" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" s="53"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="81"/>
-      <c r="J59" s="82"/>
-      <c r="K59" s="83"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="34"/>
-      <c r="B60" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60" s="51"/>
-      <c r="E60" s="52"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="81"/>
-      <c r="J60" s="82"/>
-      <c r="K60" s="83"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="34"/>
-      <c r="B61" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C61" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" s="55"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="81"/>
-      <c r="J61" s="82"/>
-      <c r="K61" s="83"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="34"/>
-      <c r="B62" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62" s="45"/>
-      <c r="E62" s="46"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="81"/>
-      <c r="J62" s="82"/>
-      <c r="K62" s="83"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="35"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="84"/>
-      <c r="J63" s="85"/>
-      <c r="K63" s="86"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="65" t="s">
-        <v>2</v>
-      </c>
-      <c r="B70" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" s="68"/>
-      <c r="D70" s="68"/>
-      <c r="E70" s="69"/>
-      <c r="F70" s="73" t="s">
-        <v>4</v>
-      </c>
-      <c r="G70" s="74"/>
-      <c r="H70" s="75"/>
-      <c r="I70" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="J70" s="76"/>
-      <c r="K70" s="77"/>
-    </row>
-    <row r="71" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A71" s="66"/>
-      <c r="B71" s="70"/>
-      <c r="C71" s="71"/>
-      <c r="D71" s="71"/>
-      <c r="E71" s="72"/>
-      <c r="F71" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="G71" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="H71" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="I71" s="66"/>
-      <c r="J71" s="78"/>
-      <c r="K71" s="79"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="17">
-        <v>5</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D72" s="89"/>
-      <c r="E72" s="90"/>
-      <c r="F72" s="32"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="30"/>
-      <c r="I72" s="80"/>
-      <c r="J72" s="63"/>
-      <c r="K72" s="64"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="19"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="91"/>
-      <c r="E73" s="92"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="81"/>
-      <c r="J73" s="82"/>
-      <c r="K73" s="83"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="19"/>
-      <c r="B74" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74" s="87"/>
-      <c r="E74" s="88"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="81"/>
-      <c r="J74" s="82"/>
-      <c r="K74" s="83"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="19"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="87"/>
-      <c r="E75" s="88"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="81"/>
-      <c r="J75" s="82"/>
-      <c r="K75" s="83"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="19"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="87"/>
-      <c r="E76" s="88"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="81"/>
-      <c r="J76" s="82"/>
-      <c r="K76" s="83"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="19"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="87"/>
-      <c r="E77" s="88"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="81"/>
-      <c r="J77" s="82"/>
-      <c r="K77" s="83"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="19"/>
-      <c r="B78" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C78" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78" s="59"/>
-      <c r="E78" s="60"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="81"/>
-      <c r="J78" s="82"/>
-      <c r="K78" s="83"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="19"/>
-      <c r="B79" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" s="59"/>
-      <c r="E79" s="60"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="81"/>
-      <c r="J79" s="82"/>
-      <c r="K79" s="83"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="19"/>
-      <c r="B80" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C80" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D80" s="57"/>
-      <c r="E80" s="58"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="81"/>
-      <c r="J80" s="82"/>
-      <c r="K80" s="83"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="19"/>
-      <c r="B81" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D81" s="59"/>
-      <c r="E81" s="60"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="81"/>
-      <c r="J81" s="82"/>
-      <c r="K81" s="83"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="19"/>
-      <c r="B82" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C82" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D82" s="61"/>
-      <c r="E82" s="62"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="81"/>
-      <c r="J82" s="82"/>
-      <c r="K82" s="83"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="19"/>
-      <c r="B83" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D83" s="63"/>
-      <c r="E83" s="64"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="81"/>
-      <c r="J83" s="82"/>
-      <c r="K83" s="83"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="22"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="84"/>
-      <c r="J84" s="85"/>
-      <c r="K84" s="86"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="17">
-        <v>6</v>
-      </c>
-      <c r="B85" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D85" s="89"/>
-      <c r="E85" s="90"/>
-      <c r="F85" s="32"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="30"/>
-      <c r="I85" s="80"/>
-      <c r="J85" s="63"/>
-      <c r="K85" s="64"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="19"/>
-      <c r="B86" s="8"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="91"/>
-      <c r="E86" s="92"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="12"/>
-      <c r="I86" s="81"/>
-      <c r="J86" s="82"/>
-      <c r="K86" s="83"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="19"/>
-      <c r="B87" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D87" s="87"/>
-      <c r="E87" s="88"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="81"/>
-      <c r="J87" s="82"/>
-      <c r="K87" s="83"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="19"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="87"/>
-      <c r="E88" s="88"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="81"/>
-      <c r="J88" s="82"/>
-      <c r="K88" s="83"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="19"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="87"/>
-      <c r="E89" s="88"/>
-      <c r="F89" s="21"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="81"/>
-      <c r="J89" s="82"/>
-      <c r="K89" s="83"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="19"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="87"/>
-      <c r="E90" s="88"/>
-      <c r="F90" s="21"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="81"/>
-      <c r="J90" s="82"/>
-      <c r="K90" s="83"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="19"/>
-      <c r="B91" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C91" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D91" s="59"/>
-      <c r="E91" s="60"/>
-      <c r="F91" s="21"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="81"/>
-      <c r="J91" s="82"/>
-      <c r="K91" s="83"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="19"/>
-      <c r="B92" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D92" s="59"/>
-      <c r="E92" s="60"/>
-      <c r="F92" s="21"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="81"/>
-      <c r="J92" s="82"/>
-      <c r="K92" s="83"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="19"/>
-      <c r="B93" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C93" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D93" s="57"/>
-      <c r="E93" s="58"/>
-      <c r="F93" s="21"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="81"/>
-      <c r="J93" s="82"/>
-      <c r="K93" s="83"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="19"/>
-      <c r="B94" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D94" s="59"/>
-      <c r="E94" s="60"/>
-      <c r="F94" s="21"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="81"/>
-      <c r="J94" s="82"/>
-      <c r="K94" s="83"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="19"/>
-      <c r="B95" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C95" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D95" s="61"/>
-      <c r="E95" s="62"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="81"/>
-      <c r="J95" s="82"/>
-      <c r="K95" s="83"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="19"/>
-      <c r="B96" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C96" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D96" s="63"/>
-      <c r="E96" s="64"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="81"/>
-      <c r="J96" s="82"/>
-      <c r="K96" s="83"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="22"/>
-      <c r="B97" s="8"/>
-      <c r="C97" s="10"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="9"/>
-      <c r="I97" s="84"/>
-      <c r="J97" s="85"/>
-      <c r="K97" s="86"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="65" t="s">
-        <v>2</v>
-      </c>
-      <c r="B104" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C104" s="68"/>
-      <c r="D104" s="68"/>
-      <c r="E104" s="69"/>
-      <c r="F104" s="73" t="s">
-        <v>4</v>
-      </c>
-      <c r="G104" s="74"/>
-      <c r="H104" s="75"/>
-      <c r="I104" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="J104" s="76"/>
-      <c r="K104" s="77"/>
-    </row>
-    <row r="105" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A105" s="66"/>
-      <c r="B105" s="70"/>
-      <c r="C105" s="71"/>
-      <c r="D105" s="71"/>
-      <c r="E105" s="72"/>
-      <c r="F105" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="G105" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="H105" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="I105" s="66"/>
-      <c r="J105" s="78"/>
-      <c r="K105" s="79"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="17">
-        <v>7</v>
-      </c>
-      <c r="B106" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C106" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D106" s="89"/>
-      <c r="E106" s="90"/>
-      <c r="F106" s="32"/>
-      <c r="G106" s="15"/>
-      <c r="H106" s="30"/>
-      <c r="I106" s="80"/>
-      <c r="J106" s="63"/>
-      <c r="K106" s="64"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="19"/>
-      <c r="B107" s="8"/>
-      <c r="C107" s="10"/>
-      <c r="D107" s="91"/>
-      <c r="E107" s="92"/>
-      <c r="F107" s="21"/>
-      <c r="G107" s="4"/>
-      <c r="H107" s="12"/>
-      <c r="I107" s="81"/>
-      <c r="J107" s="82"/>
-      <c r="K107" s="83"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="19"/>
-      <c r="B108" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D108" s="87"/>
-      <c r="E108" s="88"/>
-      <c r="F108" s="21"/>
-      <c r="G108" s="4"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="81"/>
-      <c r="J108" s="82"/>
-      <c r="K108" s="83"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="19"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="87"/>
-      <c r="E109" s="88"/>
-      <c r="F109" s="21"/>
-      <c r="G109" s="4"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="81"/>
-      <c r="J109" s="82"/>
-      <c r="K109" s="83"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="19"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="87"/>
-      <c r="E110" s="88"/>
-      <c r="F110" s="21"/>
-      <c r="G110" s="4"/>
-      <c r="H110" s="2"/>
-      <c r="I110" s="81"/>
-      <c r="J110" s="82"/>
-      <c r="K110" s="83"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="19"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="87"/>
-      <c r="E111" s="88"/>
-      <c r="F111" s="21"/>
-      <c r="G111" s="4"/>
-      <c r="H111" s="2"/>
-      <c r="I111" s="81"/>
-      <c r="J111" s="82"/>
-      <c r="K111" s="83"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="19"/>
-      <c r="B112" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C112" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D112" s="59"/>
-      <c r="E112" s="60"/>
-      <c r="F112" s="21"/>
-      <c r="G112" s="4"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="81"/>
-      <c r="J112" s="82"/>
-      <c r="K112" s="83"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="19"/>
-      <c r="B113" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D113" s="59"/>
-      <c r="E113" s="60"/>
-      <c r="F113" s="21"/>
-      <c r="G113" s="4"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="81"/>
-      <c r="J113" s="82"/>
-      <c r="K113" s="83"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="19"/>
-      <c r="B114" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C114" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D114" s="57"/>
-      <c r="E114" s="58"/>
-      <c r="F114" s="21"/>
-      <c r="G114" s="4"/>
-      <c r="H114" s="2"/>
-      <c r="I114" s="81"/>
-      <c r="J114" s="82"/>
-      <c r="K114" s="83"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="19"/>
-      <c r="B115" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D115" s="59"/>
-      <c r="E115" s="60"/>
-      <c r="F115" s="21"/>
-      <c r="G115" s="4"/>
-      <c r="H115" s="2"/>
-      <c r="I115" s="81"/>
-      <c r="J115" s="82"/>
-      <c r="K115" s="83"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="19"/>
-      <c r="B116" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C116" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D116" s="61"/>
-      <c r="E116" s="62"/>
-      <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="81"/>
-      <c r="J116" s="82"/>
-      <c r="K116" s="83"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="19"/>
-      <c r="B117" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C117" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D117" s="63"/>
-      <c r="E117" s="64"/>
-      <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
-      <c r="H117" s="2"/>
-      <c r="I117" s="81"/>
-      <c r="J117" s="82"/>
-      <c r="K117" s="83"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="22"/>
-      <c r="B118" s="8"/>
-      <c r="C118" s="10"/>
-      <c r="D118" s="10"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="11"/>
-      <c r="G118" s="11"/>
-      <c r="H118" s="9"/>
-      <c r="I118" s="84"/>
-      <c r="J118" s="85"/>
-      <c r="K118" s="86"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="17">
-        <v>8</v>
-      </c>
-      <c r="B119" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C119" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D119" s="89"/>
-      <c r="E119" s="90"/>
-      <c r="F119" s="32"/>
-      <c r="G119" s="15"/>
-      <c r="H119" s="30"/>
-      <c r="I119" s="80"/>
-      <c r="J119" s="63"/>
-      <c r="K119" s="64"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="19"/>
-      <c r="B120" s="8"/>
-      <c r="C120" s="10"/>
-      <c r="D120" s="91"/>
-      <c r="E120" s="92"/>
-      <c r="F120" s="21"/>
-      <c r="G120" s="4"/>
-      <c r="H120" s="12"/>
-      <c r="I120" s="81"/>
-      <c r="J120" s="82"/>
-      <c r="K120" s="83"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="19"/>
-      <c r="B121" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D121" s="87"/>
-      <c r="E121" s="88"/>
-      <c r="F121" s="21"/>
-      <c r="G121" s="4"/>
-      <c r="H121" s="2"/>
-      <c r="I121" s="81"/>
-      <c r="J121" s="82"/>
-      <c r="K121" s="83"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="19"/>
-      <c r="B122" s="1"/>
-      <c r="C122" s="3"/>
-      <c r="D122" s="87"/>
-      <c r="E122" s="88"/>
-      <c r="F122" s="21"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="2"/>
-      <c r="I122" s="81"/>
-      <c r="J122" s="82"/>
-      <c r="K122" s="83"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="19"/>
-      <c r="B123" s="1"/>
-      <c r="C123" s="3"/>
-      <c r="D123" s="87"/>
-      <c r="E123" s="88"/>
-      <c r="F123" s="21"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="2"/>
-      <c r="I123" s="81"/>
-      <c r="J123" s="82"/>
-      <c r="K123" s="83"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="19"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="3"/>
-      <c r="D124" s="87"/>
-      <c r="E124" s="88"/>
-      <c r="F124" s="21"/>
-      <c r="G124" s="4"/>
-      <c r="H124" s="2"/>
-      <c r="I124" s="81"/>
-      <c r="J124" s="82"/>
-      <c r="K124" s="83"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="19"/>
-      <c r="B125" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C125" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D125" s="59"/>
-      <c r="E125" s="60"/>
-      <c r="F125" s="21"/>
-      <c r="G125" s="4"/>
-      <c r="H125" s="2"/>
-      <c r="I125" s="81"/>
-      <c r="J125" s="82"/>
-      <c r="K125" s="83"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="19"/>
-      <c r="B126" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D126" s="59"/>
-      <c r="E126" s="60"/>
-      <c r="F126" s="21"/>
-      <c r="G126" s="4"/>
-      <c r="H126" s="2"/>
-      <c r="I126" s="81"/>
-      <c r="J126" s="82"/>
-      <c r="K126" s="83"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="19"/>
-      <c r="B127" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C127" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D127" s="57"/>
-      <c r="E127" s="58"/>
-      <c r="F127" s="21"/>
-      <c r="G127" s="4"/>
-      <c r="H127" s="2"/>
-      <c r="I127" s="81"/>
-      <c r="J127" s="82"/>
-      <c r="K127" s="83"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="19"/>
-      <c r="B128" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D128" s="59"/>
-      <c r="E128" s="60"/>
-      <c r="F128" s="21"/>
-      <c r="G128" s="4"/>
-      <c r="H128" s="2"/>
-      <c r="I128" s="81"/>
-      <c r="J128" s="82"/>
-      <c r="K128" s="83"/>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="19"/>
-      <c r="B129" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C129" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D129" s="61"/>
-      <c r="E129" s="62"/>
-      <c r="F129" s="4"/>
-      <c r="G129" s="4"/>
-      <c r="H129" s="2"/>
-      <c r="I129" s="81"/>
-      <c r="J129" s="82"/>
-      <c r="K129" s="83"/>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="19"/>
-      <c r="B130" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C130" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D130" s="63"/>
-      <c r="E130" s="64"/>
-      <c r="F130" s="4"/>
-      <c r="G130" s="4"/>
-      <c r="H130" s="2"/>
-      <c r="I130" s="81"/>
-      <c r="J130" s="82"/>
-      <c r="K130" s="83"/>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="22"/>
-      <c r="B131" s="8"/>
-      <c r="C131" s="10"/>
-      <c r="D131" s="10"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="11"/>
-      <c r="G131" s="11"/>
-      <c r="H131" s="9"/>
-      <c r="I131" s="84"/>
-      <c r="J131" s="85"/>
-      <c r="K131" s="86"/>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="65" t="s">
-        <v>2</v>
-      </c>
-      <c r="B138" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C138" s="68"/>
-      <c r="D138" s="68"/>
-      <c r="E138" s="69"/>
-      <c r="F138" s="73" t="s">
-        <v>4</v>
-      </c>
-      <c r="G138" s="74"/>
-      <c r="H138" s="75"/>
-      <c r="I138" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="J138" s="76"/>
-      <c r="K138" s="77"/>
-    </row>
-    <row r="139" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A139" s="66"/>
-      <c r="B139" s="70"/>
-      <c r="C139" s="71"/>
-      <c r="D139" s="71"/>
-      <c r="E139" s="72"/>
-      <c r="F139" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="G139" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="H139" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="I139" s="66"/>
-      <c r="J139" s="78"/>
-      <c r="K139" s="79"/>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="17">
-        <v>9</v>
-      </c>
-      <c r="B140" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C140" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D140" s="89"/>
-      <c r="E140" s="90"/>
-      <c r="F140" s="32"/>
-      <c r="G140" s="15"/>
-      <c r="H140" s="30"/>
-      <c r="I140" s="80"/>
-      <c r="J140" s="63"/>
-      <c r="K140" s="64"/>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="19"/>
-      <c r="B141" s="8"/>
-      <c r="C141" s="10"/>
-      <c r="D141" s="91"/>
-      <c r="E141" s="92"/>
-      <c r="F141" s="21"/>
-      <c r="G141" s="4"/>
-      <c r="H141" s="12"/>
-      <c r="I141" s="81"/>
-      <c r="J141" s="82"/>
-      <c r="K141" s="83"/>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="19"/>
-      <c r="B142" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D142" s="87"/>
-      <c r="E142" s="88"/>
-      <c r="F142" s="21"/>
-      <c r="G142" s="4"/>
-      <c r="H142" s="2"/>
-      <c r="I142" s="81"/>
-      <c r="J142" s="82"/>
-      <c r="K142" s="83"/>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="19"/>
-      <c r="B143" s="1"/>
-      <c r="C143" s="3"/>
-      <c r="D143" s="87"/>
-      <c r="E143" s="88"/>
-      <c r="F143" s="21"/>
-      <c r="G143" s="4"/>
-      <c r="H143" s="2"/>
-      <c r="I143" s="81"/>
-      <c r="J143" s="82"/>
-      <c r="K143" s="83"/>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="19"/>
-      <c r="B144" s="1"/>
-      <c r="C144" s="3"/>
-      <c r="D144" s="87"/>
-      <c r="E144" s="88"/>
-      <c r="F144" s="21"/>
-      <c r="G144" s="4"/>
-      <c r="H144" s="2"/>
-      <c r="I144" s="81"/>
-      <c r="J144" s="82"/>
-      <c r="K144" s="83"/>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="19"/>
-      <c r="B145" s="1"/>
-      <c r="C145" s="3"/>
-      <c r="D145" s="87"/>
-      <c r="E145" s="88"/>
-      <c r="F145" s="21"/>
-      <c r="G145" s="4"/>
-      <c r="H145" s="2"/>
-      <c r="I145" s="81"/>
-      <c r="J145" s="82"/>
-      <c r="K145" s="83"/>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="19"/>
-      <c r="B146" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C146" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D146" s="59"/>
-      <c r="E146" s="60"/>
-      <c r="F146" s="21"/>
-      <c r="G146" s="4"/>
-      <c r="H146" s="2"/>
-      <c r="I146" s="81"/>
-      <c r="J146" s="82"/>
-      <c r="K146" s="83"/>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="19"/>
-      <c r="B147" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D147" s="59"/>
-      <c r="E147" s="60"/>
-      <c r="F147" s="21"/>
-      <c r="G147" s="4"/>
-      <c r="H147" s="2"/>
-      <c r="I147" s="81"/>
-      <c r="J147" s="82"/>
-      <c r="K147" s="83"/>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="19"/>
-      <c r="B148" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C148" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D148" s="57"/>
-      <c r="E148" s="58"/>
-      <c r="F148" s="21"/>
-      <c r="G148" s="4"/>
-      <c r="H148" s="2"/>
-      <c r="I148" s="81"/>
-      <c r="J148" s="82"/>
-      <c r="K148" s="83"/>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="19"/>
-      <c r="B149" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D149" s="59"/>
-      <c r="E149" s="60"/>
-      <c r="F149" s="21"/>
-      <c r="G149" s="4"/>
-      <c r="H149" s="2"/>
-      <c r="I149" s="81"/>
-      <c r="J149" s="82"/>
-      <c r="K149" s="83"/>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" s="19"/>
-      <c r="B150" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C150" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D150" s="61"/>
-      <c r="E150" s="62"/>
-      <c r="F150" s="4"/>
-      <c r="G150" s="4"/>
-      <c r="H150" s="2"/>
-      <c r="I150" s="81"/>
-      <c r="J150" s="82"/>
-      <c r="K150" s="83"/>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="19"/>
-      <c r="B151" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C151" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D151" s="63"/>
-      <c r="E151" s="64"/>
-      <c r="F151" s="4"/>
-      <c r="G151" s="4"/>
-      <c r="H151" s="2"/>
-      <c r="I151" s="81"/>
-      <c r="J151" s="82"/>
-      <c r="K151" s="83"/>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" s="22"/>
-      <c r="B152" s="8"/>
-      <c r="C152" s="10"/>
-      <c r="D152" s="10"/>
-      <c r="E152" s="9"/>
-      <c r="F152" s="11"/>
-      <c r="G152" s="11"/>
-      <c r="H152" s="9"/>
-      <c r="I152" s="84"/>
-      <c r="J152" s="85"/>
-      <c r="K152" s="86"/>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="17">
-        <v>10</v>
-      </c>
-      <c r="B153" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C153" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D153" s="89"/>
-      <c r="E153" s="90"/>
-      <c r="F153" s="32"/>
-      <c r="G153" s="15"/>
-      <c r="H153" s="30"/>
-      <c r="I153" s="80"/>
-      <c r="J153" s="63"/>
-      <c r="K153" s="64"/>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="19"/>
-      <c r="B154" s="8"/>
-      <c r="C154" s="10"/>
-      <c r="D154" s="91"/>
-      <c r="E154" s="92"/>
-      <c r="F154" s="21"/>
-      <c r="G154" s="4"/>
-      <c r="H154" s="12"/>
-      <c r="I154" s="81"/>
-      <c r="J154" s="82"/>
-      <c r="K154" s="83"/>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="19"/>
-      <c r="B155" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D155" s="87"/>
-      <c r="E155" s="88"/>
-      <c r="F155" s="21"/>
-      <c r="G155" s="4"/>
-      <c r="H155" s="2"/>
-      <c r="I155" s="81"/>
-      <c r="J155" s="82"/>
-      <c r="K155" s="83"/>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="19"/>
-      <c r="B156" s="1"/>
-      <c r="C156" s="3"/>
-      <c r="D156" s="87"/>
-      <c r="E156" s="88"/>
-      <c r="F156" s="21"/>
-      <c r="G156" s="4"/>
-      <c r="H156" s="2"/>
-      <c r="I156" s="81"/>
-      <c r="J156" s="82"/>
-      <c r="K156" s="83"/>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="19"/>
-      <c r="B157" s="1"/>
-      <c r="C157" s="3"/>
-      <c r="D157" s="87"/>
-      <c r="E157" s="88"/>
-      <c r="F157" s="21"/>
-      <c r="G157" s="4"/>
-      <c r="H157" s="2"/>
-      <c r="I157" s="81"/>
-      <c r="J157" s="82"/>
-      <c r="K157" s="83"/>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="19"/>
-      <c r="B158" s="1"/>
-      <c r="C158" s="3"/>
-      <c r="D158" s="87"/>
-      <c r="E158" s="88"/>
-      <c r="F158" s="21"/>
-      <c r="G158" s="4"/>
-      <c r="H158" s="2"/>
-      <c r="I158" s="81"/>
-      <c r="J158" s="82"/>
-      <c r="K158" s="83"/>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="19"/>
-      <c r="B159" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C159" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D159" s="59"/>
-      <c r="E159" s="60"/>
-      <c r="F159" s="21"/>
-      <c r="G159" s="4"/>
-      <c r="H159" s="2"/>
-      <c r="I159" s="81"/>
-      <c r="J159" s="82"/>
-      <c r="K159" s="83"/>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="19"/>
-      <c r="B160" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D160" s="59"/>
-      <c r="E160" s="60"/>
-      <c r="F160" s="21"/>
-      <c r="G160" s="4"/>
-      <c r="H160" s="2"/>
-      <c r="I160" s="81"/>
-      <c r="J160" s="82"/>
-      <c r="K160" s="83"/>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" s="19"/>
-      <c r="B161" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C161" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D161" s="57"/>
-      <c r="E161" s="58"/>
-      <c r="F161" s="21"/>
-      <c r="G161" s="4"/>
-      <c r="H161" s="2"/>
-      <c r="I161" s="81"/>
-      <c r="J161" s="82"/>
-      <c r="K161" s="83"/>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162" s="19"/>
-      <c r="B162" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D162" s="59"/>
-      <c r="E162" s="60"/>
-      <c r="F162" s="21"/>
-      <c r="G162" s="4"/>
-      <c r="H162" s="2"/>
-      <c r="I162" s="81"/>
-      <c r="J162" s="82"/>
-      <c r="K162" s="83"/>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" s="19"/>
-      <c r="B163" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C163" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D163" s="61"/>
-      <c r="E163" s="62"/>
-      <c r="F163" s="4"/>
-      <c r="G163" s="4"/>
-      <c r="H163" s="2"/>
-      <c r="I163" s="81"/>
-      <c r="J163" s="82"/>
-      <c r="K163" s="83"/>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="19"/>
-      <c r="B164" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C164" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D164" s="63"/>
-      <c r="E164" s="64"/>
-      <c r="F164" s="4"/>
-      <c r="G164" s="4"/>
-      <c r="H164" s="2"/>
-      <c r="I164" s="81"/>
-      <c r="J164" s="82"/>
-      <c r="K164" s="83"/>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165" s="22"/>
-      <c r="B165" s="8"/>
-      <c r="C165" s="10"/>
-      <c r="D165" s="10"/>
-      <c r="E165" s="9"/>
-      <c r="F165" s="11"/>
-      <c r="G165" s="11"/>
-      <c r="H165" s="9"/>
-      <c r="I165" s="84"/>
-      <c r="J165" s="85"/>
-      <c r="K165" s="86"/>
+    <row r="165" spans="1:11">
+      <c r="A165" s="61"/>
+      <c r="B165" s="36"/>
+      <c r="C165" s="37"/>
+      <c r="D165" s="37"/>
+      <c r="E165" s="64"/>
+      <c r="F165" s="63"/>
+      <c r="G165" s="63"/>
+      <c r="H165" s="64"/>
+      <c r="I165" s="65"/>
+      <c r="J165" s="66"/>
+      <c r="K165" s="67"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
-    <mergeCell ref="I38:K50"/>
-    <mergeCell ref="I51:K63"/>
-    <mergeCell ref="I36:K37"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="D23:E26"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:E7"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:K7"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:E37"/>
-    <mergeCell ref="F36:H36"/>
+  <mergeCells count="101">
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="B138:E139"/>
+    <mergeCell ref="F138:H138"/>
+    <mergeCell ref="I138:K139"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:E71"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="I70:K71"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:E105"/>
+    <mergeCell ref="F104:H104"/>
+    <mergeCell ref="I104:K105"/>
+    <mergeCell ref="I85:K97"/>
+    <mergeCell ref="D87:E90"/>
+    <mergeCell ref="D106:E107"/>
+    <mergeCell ref="I106:K118"/>
+    <mergeCell ref="D140:E141"/>
+    <mergeCell ref="D142:E145"/>
+    <mergeCell ref="D119:E120"/>
+    <mergeCell ref="I119:K131"/>
+    <mergeCell ref="D121:E124"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="D153:E154"/>
+    <mergeCell ref="I153:K165"/>
+    <mergeCell ref="D155:E158"/>
+    <mergeCell ref="D163:E163"/>
+    <mergeCell ref="D164:E164"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="I140:K152"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="D85:E86"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="I72:K84"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D108:E111"/>
+    <mergeCell ref="D72:E73"/>
+    <mergeCell ref="D74:E77"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D79:E79"/>
     <mergeCell ref="D80:E80"/>
     <mergeCell ref="D81:E81"/>
     <mergeCell ref="D17:E17"/>
@@ -14598,70 +14691,27 @@
     <mergeCell ref="D10:E13"/>
     <mergeCell ref="D8:E9"/>
     <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D85:E86"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="I72:K84"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D108:E111"/>
-    <mergeCell ref="D72:E73"/>
-    <mergeCell ref="D74:E77"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="D153:E154"/>
-    <mergeCell ref="I153:K165"/>
-    <mergeCell ref="D155:E158"/>
-    <mergeCell ref="D163:E163"/>
-    <mergeCell ref="D164:E164"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="D162:E162"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="I140:K152"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="D140:E141"/>
-    <mergeCell ref="D142:E145"/>
-    <mergeCell ref="D119:E120"/>
-    <mergeCell ref="I119:K131"/>
-    <mergeCell ref="D121:E124"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="D128:E128"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="D126:E126"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="B138:E139"/>
-    <mergeCell ref="F138:H138"/>
-    <mergeCell ref="I138:K139"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:E71"/>
-    <mergeCell ref="F70:H70"/>
-    <mergeCell ref="I70:K71"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="B104:E105"/>
-    <mergeCell ref="F104:H104"/>
-    <mergeCell ref="I104:K105"/>
-    <mergeCell ref="I85:K97"/>
-    <mergeCell ref="D87:E90"/>
-    <mergeCell ref="D106:E107"/>
-    <mergeCell ref="I106:K118"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:E37"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:E7"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K7"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="I38:K50"/>
+    <mergeCell ref="I51:K63"/>
+    <mergeCell ref="I36:K37"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="D23:E26"/>
+    <mergeCell ref="D38:E39"/>
+    <mergeCell ref="D40:E43"/>
+    <mergeCell ref="D51:E52"/>
+    <mergeCell ref="D53:E56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
